--- a/results/comparaison/WM/retardance/max_normalized.xlsx
+++ b/results/comparaison/WM/retardance/max_normalized.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -954,603 +966,1449 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7407407407407406</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C3">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="D3">
+        <v>0.1159420289855073</v>
       </c>
       <c r="E3">
-        <v>0.5365853658536583</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="F3">
-        <v>0.467741935483871</v>
+        <v>0.4878048780487804</v>
+      </c>
+      <c r="G3">
+        <v>0.2499999999999999</v>
       </c>
       <c r="H3">
-        <v>0.9729729729729732</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="I3">
-        <v>0.59375</v>
+        <v>0.2187499999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.6153846153846151</v>
       </c>
       <c r="K3">
-        <v>0.8888888888888887</v>
+        <v>0.08955223880597014</v>
+      </c>
+      <c r="L3">
+        <v>0.1095890410958904</v>
       </c>
       <c r="M3">
-        <v>0.6543209876543208</v>
+        <v>0.6865671641791044</v>
       </c>
       <c r="N3">
-        <v>0.6607142857142856</v>
+        <v>0.8214285714285718</v>
       </c>
       <c r="O3">
-        <v>0.5666666666666669</v>
+        <v>1.075</v>
       </c>
       <c r="P3">
-        <v>0.4324324324324325</v>
+        <v>0.6511627906976741</v>
+      </c>
+      <c r="Q3">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0.393939393939394</v>
       </c>
       <c r="S3">
-        <v>0.3250000000000001</v>
+        <v>0.4374999999999999</v>
+      </c>
+      <c r="T3">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="U3">
+        <v>1.4</v>
+      </c>
+      <c r="V3">
+        <v>0.3647058823529412</v>
       </c>
       <c r="W3">
-        <v>0.32</v>
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="X3">
+        <v>0.7407407407407409</v>
       </c>
       <c r="Y3">
-        <v>0.7111111111111112</v>
+        <v>0.6428571428571427</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>1.529411764705882</v>
       </c>
       <c r="AA3">
-        <v>0.5636363636363636</v>
+        <v>0.7575757575757579</v>
       </c>
       <c r="AB3">
-        <v>1.065217391304348</v>
+        <v>0.1842105263157894</v>
+      </c>
+      <c r="AC3">
+        <v>0.5294117647058822</v>
+      </c>
+      <c r="AD3">
+        <v>1.058823529411765</v>
+      </c>
+      <c r="AF3">
+        <v>0.8536585365853656</v>
+      </c>
+      <c r="AG3">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="AH3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AI3">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="AJ3">
+        <v>0.4489795918367346</v>
+      </c>
+      <c r="AL3">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="AM3">
+        <v>0.8333333333333329</v>
+      </c>
+      <c r="AN3">
+        <v>0.4523809523809522</v>
+      </c>
+      <c r="AO3">
+        <v>0.4411764705882352</v>
+      </c>
+      <c r="AP3">
+        <v>0.875</v>
       </c>
       <c r="AQ3">
-        <v>0.7692307692307693</v>
+        <v>0.8356164383561645</v>
       </c>
       <c r="AR3">
-        <v>0.9473684210526315</v>
+        <v>0.2647058823529411</v>
       </c>
       <c r="AS3">
-        <v>0.8441558441558442</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="AT3">
-        <v>1.421052631578948</v>
+        <v>0.7272727272727275</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0.1612903225806451</v>
+      </c>
+      <c r="AV3">
+        <v>0.7395833333333334</v>
       </c>
       <c r="AX3">
-        <v>0.6046511627906974</v>
+        <v>0.7599999999999998</v>
+      </c>
+      <c r="AY3">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="AZ3">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="BA3">
+        <v>0.5862068965517242</v>
       </c>
       <c r="BB3">
-        <v>0.8947368421052634</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="BC3">
-        <v>1.12280701754386</v>
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="BD3">
+        <v>0.6049382716049382</v>
+      </c>
+      <c r="BE3">
+        <v>0.1521739130434782</v>
       </c>
       <c r="BF3">
-        <v>0.5135135135135135</v>
+        <v>0.5357142857142858</v>
+      </c>
+      <c r="BG3">
+        <v>0.6562500000000001</v>
+      </c>
+      <c r="BH3">
+        <v>0.476190476190476</v>
       </c>
       <c r="BI3">
-        <v>0.9444444444444443</v>
+        <v>0.3492063492063491</v>
       </c>
       <c r="BJ3">
-        <v>0.5205479452054795</v>
+        <v>0.4050632911392407</v>
       </c>
       <c r="BK3">
-        <v>0.6111111111111109</v>
+        <v>0.3461538461538462</v>
+      </c>
+      <c r="BM3">
+        <v>0.5781249999999999</v>
+      </c>
+      <c r="BN3">
+        <v>0.2727272727272727</v>
       </c>
       <c r="BO3">
-        <v>0.5666666666666669</v>
+        <v>0.7916666666666667</v>
       </c>
       <c r="BP3">
-        <v>0.573529411764706</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="BQ3">
-        <v>0.7272727272727274</v>
+        <v>0.9577464788732396</v>
       </c>
       <c r="BR3">
-        <v>0.5714285714285714</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="BS3">
-        <v>0.6307692307692309</v>
+        <v>0.8</v>
+      </c>
+      <c r="BT3">
+        <v>0.9166666666666666</v>
       </c>
       <c r="BU3">
-        <v>1.052631578947369</v>
+        <v>0.7272727272727275</v>
       </c>
       <c r="BV3">
-        <v>0.5555555555555555</v>
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="BW3">
+        <v>1.266666666666667</v>
+      </c>
+      <c r="BX3">
+        <v>0.7358490566037739</v>
+      </c>
+      <c r="BY3">
+        <v>1.125</v>
+      </c>
+      <c r="BZ3">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="CA3">
+        <v>0.4130434782608696</v>
+      </c>
+      <c r="CB3">
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>0.8421052631578948</v>
+      </c>
+      <c r="CD3">
+        <v>0.8125000000000001</v>
+      </c>
+      <c r="CE3">
+        <v>0.1818181818181819</v>
+      </c>
+      <c r="CF3">
+        <v>2</v>
       </c>
       <c r="CG3">
-        <v>1.696969696969697</v>
+        <v>3.666666666666667</v>
+      </c>
+      <c r="CH3">
+        <v>1.35</v>
+      </c>
+      <c r="CI3">
+        <v>1.25</v>
       </c>
       <c r="CK3">
-        <v>0.9444444444444443</v>
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="CL3">
+        <v>0.1904761904761904</v>
+      </c>
+      <c r="CM3">
+        <v>3.75</v>
       </c>
       <c r="CN3">
-        <v>0.7407407407407407</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CO3">
+        <v>1.2</v>
+      </c>
+      <c r="CP3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="CQ3">
+        <v>3.071428571428572</v>
+      </c>
+      <c r="CR3">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="CS3">
+        <v>1</v>
+      </c>
+      <c r="CT3">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="CU3">
+        <v>0.2380952380952379</v>
+      </c>
+      <c r="CV3">
+        <v>0.2399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5925925925925923</v>
+        <v>0.6266666666666666</v>
+      </c>
+      <c r="C4">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="D4">
+        <v>0.07246376811594202</v>
       </c>
       <c r="E4">
-        <v>0.5121951219512196</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="F4">
-        <v>0.1935483870967742</v>
+        <v>0.3414634146341463</v>
       </c>
       <c r="H4">
-        <v>0.7567567567567567</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="I4">
-        <v>0.6093750000000002</v>
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.6923076923076922</v>
       </c>
       <c r="K4">
-        <v>1.148148148148148</v>
+        <v>0.5820895522388061</v>
+      </c>
+      <c r="L4">
+        <v>0.4109589041095889</v>
       </c>
       <c r="M4">
-        <v>0.6790123456790121</v>
+        <v>0.6716417910447761</v>
       </c>
       <c r="N4">
-        <v>0.5892857142857141</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="O4">
-        <v>0.8333333333333338</v>
+        <v>0.675</v>
       </c>
       <c r="P4">
-        <v>0.7027027027027026</v>
+        <v>0.744186046511628</v>
+      </c>
+      <c r="Q4">
+        <v>0.1999999999999999</v>
+      </c>
+      <c r="R4">
+        <v>0.7878787878787878</v>
       </c>
       <c r="S4">
-        <v>0.425</v>
+        <v>0.6874999999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="U4">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="V4">
+        <v>0.3058823529411764</v>
       </c>
       <c r="W4">
-        <v>0.6599999999999998</v>
+        <v>0.456521739130435</v>
+      </c>
+      <c r="X4">
+        <v>0.666666666666667</v>
       </c>
       <c r="Y4">
-        <v>0.6888888888888888</v>
+        <v>0.8333333333333329</v>
       </c>
       <c r="Z4">
-        <v>0.9599999999999996</v>
+        <v>1.529411764705882</v>
+      </c>
+      <c r="AA4">
+        <v>0.4848484848484849</v>
       </c>
       <c r="AB4">
-        <v>0.3913043478260871</v>
+        <v>0.131578947368421</v>
+      </c>
+      <c r="AC4">
+        <v>0.5294117647058822</v>
+      </c>
+      <c r="AD4">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AF4">
+        <v>0.7560975609756095</v>
+      </c>
+      <c r="AG4">
+        <v>0.7352941176470589</v>
       </c>
       <c r="AH4">
-        <v>0.6444444444444445</v>
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="AI4">
+        <v>0.3333333333333333</v>
       </c>
       <c r="AJ4">
-        <v>0.6764705882352942</v>
-      </c>
-      <c r="AK4">
-        <v>0.2368421052631578</v>
+        <v>0.3265306122448979</v>
+      </c>
+      <c r="AL4">
+        <v>0.2499999999999999</v>
       </c>
       <c r="AM4">
-        <v>0.7222222222222219</v>
+        <v>1.055555555555555</v>
+      </c>
+      <c r="AN4">
+        <v>0.6190476190476186</v>
+      </c>
+      <c r="AO4">
+        <v>0.6470588235294116</v>
+      </c>
+      <c r="AP4">
+        <v>0.875</v>
       </c>
       <c r="AQ4">
-        <v>0.7435897435897437</v>
+        <v>0.4657534246575343</v>
       </c>
       <c r="AR4">
-        <v>0.5087719298245614</v>
-      </c>
-      <c r="AS4">
-        <v>0.6493506493506496</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AT4">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="AU4">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="AV4">
+        <v>0.6145833333333333</v>
+      </c>
+      <c r="AZ4">
+        <v>0.5750000000000002</v>
+      </c>
+      <c r="BA4">
+        <v>0.3793103448275861</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>0.2626262626262625</v>
+      </c>
+      <c r="BD4">
+        <v>0.4691358024691358</v>
+      </c>
+      <c r="BE4">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="BF4">
+        <v>0.8928571428571432</v>
+      </c>
+      <c r="BG4">
+        <v>0.7499999999999998</v>
+      </c>
+      <c r="BH4">
+        <v>0.5238095238095235</v>
+      </c>
+      <c r="BI4">
+        <v>0.9682539682539684</v>
+      </c>
+      <c r="BJ4">
+        <v>0.2278481012658229</v>
+      </c>
+      <c r="BK4">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="BL4">
+        <v>0.4333333333333336</v>
+      </c>
+      <c r="BM4">
+        <v>0.5781249999999999</v>
+      </c>
+      <c r="BN4">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="BO4">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="BP4">
+        <v>1.727272727272727</v>
+      </c>
+      <c r="BQ4">
+        <v>1.084507042253521</v>
+      </c>
+      <c r="BR4">
+        <v>0.6065573770491801</v>
+      </c>
+      <c r="BT4">
+        <v>0.9583333333333337</v>
+      </c>
+      <c r="BU4">
+        <v>0.9090909090909093</v>
+      </c>
+      <c r="BV4">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="BW4">
+        <v>1.533333333333334</v>
+      </c>
+      <c r="BX4">
+        <v>0.6415094339622642</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>0.1475409836065573</v>
+      </c>
+      <c r="CA4">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="CB4">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="CC4">
         <v>1.052631578947369</v>
       </c>
-      <c r="AU4">
-        <v>0.7045454545454546</v>
-      </c>
-      <c r="AX4">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="BB4">
-        <v>0.736842105263158</v>
-      </c>
-      <c r="BC4">
-        <v>0.8421052631578947</v>
-      </c>
-      <c r="BI4">
-        <v>1.277777777777778</v>
-      </c>
-      <c r="BJ4">
-        <v>0.5205479452054795</v>
-      </c>
-      <c r="BK4">
-        <v>0.6111111111111109</v>
-      </c>
-      <c r="BP4">
-        <v>0.8823529411764705</v>
-      </c>
-      <c r="BS4">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="BU4">
-        <v>1.263157894736842</v>
-      </c>
-      <c r="BV4">
-        <v>0.5740740740740742</v>
+      <c r="CD4">
+        <v>1.1875</v>
+      </c>
+      <c r="CE4">
+        <v>0.3181818181818182</v>
       </c>
       <c r="CF4">
-        <v>1.125</v>
+        <v>1.857142857142858</v>
+      </c>
+      <c r="CG4">
+        <v>2</v>
       </c>
       <c r="CH4">
-        <v>0.5757575757575758</v>
+        <v>1.1</v>
+      </c>
+      <c r="CI4">
+        <v>0.5833333333333333</v>
       </c>
       <c r="CK4">
-        <v>1.222222222222222</v>
+        <v>0.3157894736842106</v>
+      </c>
+      <c r="CL4">
+        <v>1.666666666666666</v>
+      </c>
+      <c r="CM4">
+        <v>2</v>
       </c>
       <c r="CN4">
-        <v>1.481481481481481</v>
+        <v>1</v>
+      </c>
+      <c r="CO4">
+        <v>1.4</v>
+      </c>
+      <c r="CP4">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="CQ4">
+        <v>2.785714285714286</v>
+      </c>
+      <c r="CR4">
+        <v>0.09677419354838711</v>
+      </c>
+      <c r="CS4">
+        <v>3</v>
+      </c>
+      <c r="CT4">
+        <v>0.6818181818181819</v>
+      </c>
+      <c r="CU4">
+        <v>0.2857142857142856</v>
+      </c>
+      <c r="CV4">
+        <v>0.4399999999999998</v>
+      </c>
+      <c r="CW4">
+        <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5555555555555555</v>
+        <v>0.7199999999999996</v>
+      </c>
+      <c r="C5">
+        <v>0.2592592592592592</v>
       </c>
       <c r="D5">
-        <v>0.5263157894736842</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="E5">
-        <v>0.5853658536585363</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="F5">
-        <v>0.2741935483870968</v>
+        <v>0.5121951219512196</v>
       </c>
       <c r="H5">
-        <v>0.9189189189189192</v>
+        <v>0.2931034482758621</v>
       </c>
       <c r="I5">
-        <v>0.5000000000000001</v>
+        <v>0.1875</v>
+      </c>
+      <c r="J5">
+        <v>0.8974358974358971</v>
       </c>
       <c r="K5">
-        <v>1.037037037037037</v>
+        <v>0.4179104477611939</v>
+      </c>
+      <c r="L5">
+        <v>0.06849315068493149</v>
       </c>
       <c r="M5">
-        <v>0.1604938271604938</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="N5">
-        <v>0.6607142857142856</v>
+        <v>0.6071428571428573</v>
       </c>
       <c r="O5">
-        <v>0.2000000000000001</v>
+        <v>0.675</v>
       </c>
       <c r="P5">
-        <v>0.6756756756756759</v>
+        <v>0.8604651162790695</v>
+      </c>
+      <c r="Q5">
+        <v>0.16</v>
+      </c>
+      <c r="R5">
+        <v>0.5454545454545456</v>
       </c>
       <c r="S5">
-        <v>0.4500000000000001</v>
+        <v>0.125</v>
+      </c>
+      <c r="T5">
+        <v>0.3636363636363637</v>
+      </c>
+      <c r="U5">
+        <v>1.15</v>
+      </c>
+      <c r="V5">
+        <v>0.211764705882353</v>
       </c>
       <c r="W5">
-        <v>0.4399999999999998</v>
+        <v>0.3260869565217391</v>
+      </c>
+      <c r="X5">
+        <v>0.3148148148148149</v>
       </c>
       <c r="Y5">
-        <v>0.7333333333333332</v>
+        <v>0.8095238095238093</v>
       </c>
       <c r="Z5">
-        <v>1.119999999999999</v>
+        <v>1.411764705882353</v>
+      </c>
+      <c r="AA5">
+        <v>0.5454545454545456</v>
       </c>
       <c r="AB5">
-        <v>1.043478260869565</v>
+        <v>0.0789473684210526</v>
+      </c>
+      <c r="AC5">
+        <v>0.2941176470588234</v>
+      </c>
+      <c r="AD5">
+        <v>0.7647058823529412</v>
+      </c>
+      <c r="AF5">
+        <v>0.9268292682926829</v>
+      </c>
+      <c r="AG5">
+        <v>0.5</v>
+      </c>
+      <c r="AH5">
+        <v>0.2</v>
+      </c>
+      <c r="AI5">
+        <v>0.5128205128205127</v>
+      </c>
+      <c r="AJ5">
+        <v>0.2244897959183673</v>
+      </c>
+      <c r="AL5">
+        <v>0.2777777777777777</v>
+      </c>
+      <c r="AM5">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="AN5">
+        <v>0.5952380952380951</v>
+      </c>
+      <c r="AO5">
+        <v>0.3235294117647058</v>
+      </c>
+      <c r="AP5">
+        <v>0.675</v>
       </c>
       <c r="AQ5">
-        <v>0.7948717948717948</v>
+        <v>0.7671232876712329</v>
       </c>
       <c r="AR5">
-        <v>0.8771929824561406</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="AS5">
-        <v>0.7272727272727274</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AT5">
-        <v>1.210526315789474</v>
+        <v>0.3863636363636365</v>
       </c>
       <c r="AU5">
-        <v>0.7727272727272729</v>
-      </c>
-      <c r="AX5">
-        <v>0.6279069767441861</v>
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="AV5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AY5">
+        <v>0.3448275862068965</v>
+      </c>
+      <c r="AZ5">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="BA5">
+        <v>0.8620689655172415</v>
       </c>
       <c r="BB5">
-        <v>0.6315789473684211</v>
+        <v>1</v>
       </c>
       <c r="BC5">
-        <v>0.7017543859649124</v>
+        <v>0.2323232323232324</v>
+      </c>
+      <c r="BD5">
+        <v>0.45679012345679</v>
       </c>
       <c r="BE5">
-        <v>0.8000000000000002</v>
+        <v>0.1521739130434782</v>
+      </c>
+      <c r="BF5">
+        <v>0.5357142857142858</v>
+      </c>
+      <c r="BG5">
+        <v>0.78125</v>
+      </c>
+      <c r="BH5">
+        <v>0.2380952380952379</v>
       </c>
       <c r="BI5">
-        <v>1.055555555555555</v>
+        <v>0.507936507936508</v>
+      </c>
+      <c r="BJ5">
+        <v>0.1012658227848102</v>
       </c>
       <c r="BK5">
-        <v>0.7222222222222222</v>
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="BM5">
+        <v>0.5625000000000001</v>
+      </c>
+      <c r="BN5">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="BO5">
+        <v>1.041666666666667</v>
       </c>
       <c r="BP5">
-        <v>0.5</v>
-      </c>
-      <c r="BS5">
-        <v>0.6615384615384616</v>
+        <v>1.181818181818182</v>
+      </c>
+      <c r="BQ5">
+        <v>0.887323943661972</v>
+      </c>
+      <c r="BR5">
+        <v>0.6065573770491801</v>
+      </c>
+      <c r="BT5">
+        <v>0.5833333333333334</v>
       </c>
       <c r="BU5">
-        <v>0.7894736842105263</v>
+        <v>0.5681818181818183</v>
       </c>
       <c r="BV5">
-        <v>0.6296296296296299</v>
+        <v>0.4313725490196078</v>
+      </c>
+      <c r="BW5">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="BX5">
+        <v>0.5094339622641511</v>
+      </c>
+      <c r="BY5">
+        <v>0.8749999999999999</v>
       </c>
       <c r="BZ5">
-        <v>0.4285714285714287</v>
+        <v>0.0983606557377049</v>
+      </c>
+      <c r="CA5">
+        <v>0.3913043478260871</v>
+      </c>
+      <c r="CB5">
+        <v>1.285714285714286</v>
       </c>
       <c r="CC5">
-        <v>0.1454545454545454</v>
+        <v>1.315789473684211</v>
+      </c>
+      <c r="CD5">
+        <v>0.6874999999999999</v>
+      </c>
+      <c r="CE5">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="CF5">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="CG5">
+        <v>1.333333333333334</v>
       </c>
       <c r="CH5">
-        <v>0.6666666666666666</v>
+        <v>1.15</v>
+      </c>
+      <c r="CI5">
+        <v>1.25</v>
       </c>
       <c r="CK5">
-        <v>0.7777777777777777</v>
+        <v>0.6842105263157896</v>
+      </c>
+      <c r="CL5">
+        <v>0.2380952380952379</v>
+      </c>
+      <c r="CM5">
+        <v>2.25</v>
+      </c>
+      <c r="CN5">
+        <v>2.555555555555557</v>
+      </c>
+      <c r="CO5">
+        <v>1</v>
       </c>
       <c r="CP5">
-        <v>0.1403508771929825</v>
+        <v>1.133333333333334</v>
+      </c>
+      <c r="CQ5">
+        <v>3.642857142857143</v>
+      </c>
+      <c r="CR5">
+        <v>0.5161290322580646</v>
       </c>
       <c r="CS5">
-        <v>0.2253521126760563</v>
+        <v>1.2</v>
+      </c>
+      <c r="CT5">
+        <v>0.1818181818181819</v>
+      </c>
+      <c r="CU5">
+        <v>0.1904761904761904</v>
+      </c>
+      <c r="CV5">
+        <v>0.5599999999999998</v>
+      </c>
+      <c r="CW5">
+        <v>2.300000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6172839506172839</v>
+        <v>0.5733333333333333</v>
+      </c>
+      <c r="C6">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="D6">
+        <v>0.2173913043478261</v>
       </c>
       <c r="E6">
-        <v>0.5853658536585363</v>
+        <v>0.2432432432432432</v>
       </c>
       <c r="F6">
-        <v>0.7419354838709677</v>
+        <v>0.6585365853658536</v>
       </c>
       <c r="H6">
-        <v>1.297297297297297</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I6">
-        <v>0.4687499999999998</v>
+        <v>0.2499999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.7692307692307687</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888887</v>
+        <v>0.8208955223880596</v>
+      </c>
+      <c r="L6">
+        <v>0.0821917808219178</v>
       </c>
       <c r="M6">
-        <v>0.2098765432098765</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="N6">
-        <v>0.6249999999999999</v>
+        <v>0.6428571428571431</v>
+      </c>
+      <c r="O6">
+        <v>0.4500000000000001</v>
       </c>
       <c r="P6">
-        <v>0.5405405405405406</v>
+        <v>0.8139534883720929</v>
+      </c>
+      <c r="Q6">
+        <v>0.16</v>
+      </c>
+      <c r="R6">
+        <v>1.484848484848485</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.25</v>
+      </c>
+      <c r="T6">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="U6">
+        <v>1.15</v>
+      </c>
+      <c r="V6">
+        <v>0.1647058823529412</v>
       </c>
       <c r="W6">
-        <v>0.5999999999999996</v>
+        <v>0.4130434782608696</v>
+      </c>
+      <c r="X6">
+        <v>0.2037037037037037</v>
       </c>
       <c r="Y6">
-        <v>0.7555555555555556</v>
+        <v>0.8095238095238093</v>
       </c>
       <c r="Z6">
-        <v>1.28</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="AA6">
-        <v>0.4545454545454546</v>
+        <v>0.6060606060606062</v>
       </c>
       <c r="AB6">
-        <v>1.239130434782609</v>
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AC6">
+        <v>0.2941176470588234</v>
+      </c>
+      <c r="AD6">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AF6">
+        <v>0.8780487804878049</v>
+      </c>
+      <c r="AG6">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AH6">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AI6">
+        <v>0.5641025641025639</v>
+      </c>
+      <c r="AJ6">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="AK6">
+        <v>0.1884057971014493</v>
+      </c>
+      <c r="AL6">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AM6">
+        <v>0.7777777777777775</v>
+      </c>
+      <c r="AN6">
+        <v>0.7142857142857137</v>
+      </c>
+      <c r="AO6">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="AP6">
+        <v>0.8500000000000001</v>
       </c>
       <c r="AQ6">
-        <v>1.192307692307692</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="AR6">
-        <v>0.7719298245614035</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="AS6">
-        <v>0.8831168831168833</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="AT6">
-        <v>1.157894736842105</v>
+        <v>0.7727272727272729</v>
       </c>
       <c r="AU6">
-        <v>0.8409090909090909</v>
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="AV6">
+        <v>0.9583333333333333</v>
+      </c>
+      <c r="AW6">
+        <v>0.2631578947368421</v>
       </c>
       <c r="AX6">
-        <v>0.3488372093023255</v>
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AY6">
+        <v>0.4137931034482759</v>
       </c>
       <c r="AZ6">
+        <v>0.5750000000000002</v>
+      </c>
+      <c r="BA6">
+        <v>0.5862068965517242</v>
+      </c>
+      <c r="BB6">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="BC6">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="BD6">
+        <v>0.4197530864197531</v>
+      </c>
+      <c r="BE6">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="BF6">
+        <v>0.7142857142857144</v>
+      </c>
+      <c r="BG6">
+        <v>0.6874999999999998</v>
+      </c>
+      <c r="BH6">
+        <v>0.3333333333333331</v>
+      </c>
+      <c r="BI6">
         <v>0.6190476190476192</v>
       </c>
-      <c r="BB6">
-        <v>0.8421052631578948</v>
-      </c>
-      <c r="BE6">
-        <v>0.7250000000000001</v>
-      </c>
-      <c r="BI6">
-        <v>1</v>
-      </c>
       <c r="BJ6">
-        <v>0.547945205479452</v>
+        <v>0.2531645569620254</v>
       </c>
       <c r="BK6">
-        <v>0.7222222222222222</v>
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="BL6">
+        <v>0.3666666666666668</v>
+      </c>
+      <c r="BM6">
+        <v>0.8125000000000001</v>
+      </c>
+      <c r="BN6">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="BO6">
+        <v>0.9166666666666666</v>
       </c>
       <c r="BP6">
-        <v>0.7205882352941176</v>
+        <v>1.636363636363637</v>
+      </c>
+      <c r="BQ6">
+        <v>0.7887323943661974</v>
       </c>
       <c r="BR6">
-        <v>0.5844155844155845</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="BS6">
-        <v>0.6307692307692309</v>
+        <v>0.4499999999999999</v>
+      </c>
+      <c r="BT6">
+        <v>0.7500000000000002</v>
       </c>
       <c r="BU6">
-        <v>0.736842105263158</v>
+        <v>0.5</v>
       </c>
       <c r="BV6">
-        <v>0.4444444444444445</v>
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="BW6">
+        <v>0.8666666666666669</v>
+      </c>
+      <c r="BX6">
+        <v>0.3962264150943398</v>
+      </c>
+      <c r="BY6">
+        <v>1.25</v>
       </c>
       <c r="BZ6">
-        <v>0.3673469387755103</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="CA6">
-        <v>1</v>
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="CB6">
+        <v>1.428571428571429</v>
       </c>
       <c r="CC6">
-        <v>0.4363636363636363</v>
+        <v>1</v>
+      </c>
+      <c r="CD6">
+        <v>1.3125</v>
+      </c>
+      <c r="CE6">
+        <v>0.2727272727272728</v>
       </c>
       <c r="CF6">
-        <v>1.5</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="CG6">
-        <v>1.515151515151516</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="CH6">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="CI6">
         <v>0.6666666666666666</v>
       </c>
       <c r="CK6">
-        <v>0.8888888888888887</v>
+        <v>0.5263157894736843</v>
+      </c>
+      <c r="CL6">
+        <v>0.4285714285714283</v>
+      </c>
+      <c r="CM6">
+        <v>3.25</v>
       </c>
       <c r="CN6">
-        <v>1.740740740740741</v>
+        <v>1</v>
+      </c>
+      <c r="CO6">
+        <v>1.2</v>
       </c>
       <c r="CP6">
-        <v>0.2456140350877193</v>
+        <v>1.266666666666667</v>
+      </c>
+      <c r="CQ6">
+        <v>2.357142857142857</v>
       </c>
       <c r="CR6">
-        <v>0.4545454545454546</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="CS6">
-        <v>0.1971830985915493</v>
+        <v>1.4</v>
+      </c>
+      <c r="CT6">
+        <v>0.1818181818181819</v>
+      </c>
+      <c r="CU6">
+        <v>0.1904761904761904</v>
+      </c>
+      <c r="CV6">
+        <v>0.2399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6419753086419753</v>
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="D7">
+        <v>0.1159420289855073</v>
       </c>
       <c r="E7">
-        <v>0.5365853658536583</v>
+        <v>0.2162162162162163</v>
       </c>
       <c r="F7">
-        <v>0.4838709677419353</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="H7">
-        <v>0.9729729729729732</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="I7">
-        <v>0.71875</v>
+        <v>0.2812499999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.6923076923076922</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888887</v>
+        <v>0.6417910447761195</v>
+      </c>
+      <c r="L7">
+        <v>0.0821917808219178</v>
       </c>
       <c r="M7">
-        <v>0.2592592592592593</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="N7">
-        <v>0.5357142857142855</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="O7">
-        <v>0.2333333333333334</v>
+        <v>0.425</v>
       </c>
       <c r="P7">
-        <v>0.6486486486486487</v>
+        <v>0.5116279069767441</v>
+      </c>
+      <c r="Q7">
+        <v>0.2799999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.3030303030303031</v>
       </c>
       <c r="S7">
-        <v>0.4500000000000001</v>
+        <v>0.4374999999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.3636363636363637</v>
+      </c>
+      <c r="U7">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.1294117647058824</v>
       </c>
       <c r="W7">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="X7">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="Y7">
+        <v>0.8809523809523805</v>
+      </c>
+      <c r="Z7">
+        <v>0.9411764705882352</v>
+      </c>
+      <c r="AA7">
+        <v>0.6060606060606062</v>
+      </c>
+      <c r="AB7">
+        <v>0.1842105263157894</v>
+      </c>
+      <c r="AC7">
+        <v>0.5294117647058822</v>
+      </c>
+      <c r="AD7">
+        <v>0.5294117647058822</v>
+      </c>
+      <c r="AE7">
+        <v>1.818181818181819</v>
+      </c>
+      <c r="AF7">
+        <v>0.6829268292682924</v>
+      </c>
+      <c r="AG7">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="AH7">
+        <v>0.2</v>
+      </c>
+      <c r="AI7">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="AJ7">
+        <v>0.3265306122448979</v>
+      </c>
+      <c r="AK7">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AL7">
+        <v>0.5833333333333335</v>
+      </c>
+      <c r="AM7">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="AN7">
+        <v>0.5238095238095235</v>
+      </c>
+      <c r="AO7">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="AP7">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AQ7">
+        <v>0.4931506849315069</v>
+      </c>
+      <c r="AR7">
         <v>0.5</v>
       </c>
-      <c r="Y7">
-        <v>0.8444444444444444</v>
-      </c>
-      <c r="Z7">
+      <c r="AS7">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AT7">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="AU7">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="AV7">
+        <v>0.4270833333333334</v>
+      </c>
+      <c r="AW7">
+        <v>0.4035087719298247</v>
+      </c>
+      <c r="AX7">
         <v>0.7999999999999998</v>
       </c>
-      <c r="AB7">
-        <v>0.456521739130435</v>
-      </c>
-      <c r="AK7">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="AQ7">
-        <v>0.576923076923077</v>
-      </c>
-      <c r="AR7">
-        <v>0.7719298245614035</v>
-      </c>
-      <c r="AS7">
-        <v>0.4675324675324676</v>
-      </c>
-      <c r="AT7">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="AU7">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="AX7">
-        <v>0.441860465116279</v>
+      <c r="AY7">
+        <v>0.3793103448275861</v>
+      </c>
+      <c r="AZ7">
+        <v>0.5250000000000002</v>
+      </c>
+      <c r="BA7">
+        <v>0.6551724137931033</v>
       </c>
       <c r="BB7">
-        <v>0.5789473684210525</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="BC7">
-        <v>0.5789473684210525</v>
+        <v>0.2626262626262625</v>
+      </c>
+      <c r="BD7">
+        <v>0.3456790123456789</v>
+      </c>
+      <c r="BE7">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="BF7">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="BG7">
+        <v>0.5937499999999998</v>
+      </c>
+      <c r="BH7">
+        <v>0.1904761904761904</v>
       </c>
       <c r="BI7">
-        <v>0.833333333333333</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="BJ7">
-        <v>0.5342465753424659</v>
+        <v>0.2278481012658229</v>
       </c>
       <c r="BK7">
-        <v>0.5555555555555555</v>
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="BL7">
+        <v>0.4666666666666668</v>
+      </c>
+      <c r="BM7">
+        <v>0.5625000000000001</v>
+      </c>
+      <c r="BN7">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="BO7">
+        <v>1.541666666666667</v>
       </c>
       <c r="BP7">
-        <v>0.3823529411764705</v>
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="BQ7">
+        <v>0.8450704225352113</v>
       </c>
       <c r="BR7">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="BS7">
-        <v>0.553846153846154</v>
+        <v>0.4262295081967211</v>
+      </c>
+      <c r="BT7">
+        <v>0.9583333333333337</v>
       </c>
       <c r="BU7">
-        <v>1.052631578947369</v>
+        <v>0.8863636363636368</v>
       </c>
       <c r="BV7">
-        <v>0.2777777777777778</v>
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="BW7">
+        <v>0.4</v>
+      </c>
+      <c r="BX7">
+        <v>0.4150943396226415</v>
+      </c>
+      <c r="BY7">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="BZ7">
+        <v>0.1147540983606557</v>
+      </c>
+      <c r="CA7">
+        <v>0.3260869565217391</v>
+      </c>
+      <c r="CB7">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="CC7">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="CD7">
+        <v>1.0625</v>
+      </c>
+      <c r="CE7">
+        <v>0.3181818181818182</v>
       </c>
       <c r="CF7">
-        <v>1.55</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="CG7">
-        <v>1.93939393939394</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="CH7">
-        <v>0.4545454545454546</v>
+        <v>1.15</v>
+      </c>
+      <c r="CI7">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="CK7">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="CL7">
+        <v>0.2380952380952379</v>
+      </c>
+      <c r="CM7">
+        <v>1.75</v>
+      </c>
+      <c r="CN7">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="CO7">
+        <v>1.4</v>
+      </c>
+      <c r="CP7">
+        <v>1</v>
+      </c>
+      <c r="CQ7">
+        <v>1.928571428571429</v>
+      </c>
+      <c r="CR7">
+        <v>0.2096774193548387</v>
+      </c>
+      <c r="CS7">
+        <v>1.2</v>
+      </c>
+      <c r="CT7">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="CU7">
+        <v>0.1904761904761904</v>
+      </c>
+      <c r="CV7">
+        <v>0.2799999999999999</v>
       </c>
     </row>
   </sheetData>
